--- a/Odey.Excel.LiquidityReport/LiquidityReport.xlsx
+++ b/Odey.Excel.LiquidityReport/LiquidityReport.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13350" windowHeight="10830"/>
+    <workbookView xWindow="420" yWindow="-585" windowWidth="18705" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -345,33 +343,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
